--- a/Documentations/Echeancier.xlsx
+++ b/Documentations/Echeancier.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6870" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PROJET" sheetId="9" r:id="rId1"/>
-    <sheet name="JANVIER" sheetId="1" r:id="rId2"/>
-    <sheet name="FEVRIER" sheetId="2" r:id="rId3"/>
-    <sheet name="MARS" sheetId="3" r:id="rId4"/>
-    <sheet name="AVRIL" sheetId="4" r:id="rId5"/>
-    <sheet name="MAI" sheetId="5" r:id="rId6"/>
-    <sheet name="JUIN" sheetId="6" r:id="rId7"/>
-    <sheet name="JUILLET" sheetId="7" r:id="rId8"/>
-    <sheet name="AOUT" sheetId="8" r:id="rId9"/>
+    <sheet name="DECEMBRE" sheetId="1" r:id="rId2"/>
+    <sheet name="JANVIER" sheetId="10" r:id="rId3"/>
+    <sheet name="FEVRIER" sheetId="2" r:id="rId4"/>
+    <sheet name="MARS" sheetId="3" r:id="rId5"/>
+    <sheet name="AVRIL" sheetId="4" r:id="rId6"/>
+    <sheet name="MAI" sheetId="5" r:id="rId7"/>
+    <sheet name="JUIN" sheetId="6" r:id="rId8"/>
+    <sheet name="JUILLET" sheetId="7" r:id="rId9"/>
+    <sheet name="AOUT" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
   <si>
     <t>AOUT</t>
   </si>
@@ -106,9 +107,6 @@
     <t>Avancement</t>
   </si>
   <si>
-    <t>Validation</t>
-  </si>
-  <si>
     <t>Janvier</t>
   </si>
   <si>
@@ -137,6 +135,156 @@
   </si>
   <si>
     <t>Nb actions terminées</t>
+  </si>
+  <si>
+    <t>OUTILS</t>
+  </si>
+  <si>
+    <t>Créer un répertoire GIT</t>
+  </si>
+  <si>
+    <t>Créer un répertoire GIT pour le projet.</t>
+  </si>
+  <si>
+    <t>Jérémy</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Espace de dév</t>
+  </si>
+  <si>
+    <t>Créer un espace de développement commun pour le site</t>
+  </si>
+  <si>
+    <t>Espace de test</t>
+  </si>
+  <si>
+    <t>Créer un espace de test commun pour le site</t>
+  </si>
+  <si>
+    <t>INFO</t>
+  </si>
+  <si>
+    <t>Ajout documentations</t>
+  </si>
+  <si>
+    <t>Créer l'analyse de projet et l'échéancier</t>
+  </si>
+  <si>
+    <t>DECEMBRE</t>
+  </si>
+  <si>
+    <t>Décembre</t>
+  </si>
+  <si>
+    <t>Démarrage</t>
+  </si>
+  <si>
+    <t>FORMATION</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Foundation</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Formation Git</t>
+  </si>
+  <si>
+    <t>Formation Foundation</t>
+  </si>
+  <si>
+    <t>Formation HTML / CSS / JS / PHP</t>
+  </si>
+  <si>
+    <t>Formation sur l'espace de Dév et de Test</t>
+  </si>
+  <si>
+    <t>ETUDE</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Etude et choix du design au format papier</t>
+  </si>
+  <si>
+    <t>Groupe</t>
+  </si>
+  <si>
+    <t>Fonctionnement</t>
+  </si>
+  <si>
+    <t>Etude et choix dans le fonctionnement du site</t>
+  </si>
+  <si>
+    <t>Etude et choix dans l'ajout d'information, sur l'évolution du site</t>
+  </si>
+  <si>
+    <t>DEVELOPPEMENT</t>
+  </si>
+  <si>
+    <t>Récupération des anciens traitements et évaluation des évolutions possibles.</t>
+  </si>
+  <si>
+    <t>Formation - Etude</t>
+  </si>
+  <si>
+    <t>Formation JQUERY</t>
+  </si>
+  <si>
+    <t>Ajout de liens de documentation des outils (GIT, Foundation, JS, PHP, HTML, CSS, JQUERY, ...)</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Développement du menu de navigation du site</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Accueil</t>
+  </si>
+  <si>
+    <t>Développement de l'accueil du site</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Ajout des polices du site</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Background</t>
+  </si>
+  <si>
+    <t>Icones</t>
+  </si>
+  <si>
+    <t>Ajout des icônes</t>
+  </si>
+  <si>
+    <t>Design - Scripts</t>
   </si>
 </sst>
 </file>
@@ -144,7 +292,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -221,7 +369,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,16 +383,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
@@ -253,13 +395,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -269,13 +420,71 @@
     <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="148">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -310,11 +519,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -355,11 +570,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -400,11 +621,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -445,11 +672,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -490,11 +723,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -535,11 +774,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -580,68 +825,64 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -667,193 +908,225 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Tableau39" displayName="Tableau39" ref="B13:G21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="B13:G21"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Mois" dataDxfId="5"/>
-    <tableColumn id="2" name="Thèmes" dataDxfId="4"/>
-    <tableColumn id="3" name="Nb actions" dataDxfId="3"/>
-    <tableColumn id="7" name="Nb actions terminées" dataDxfId="2"/>
-    <tableColumn id="4" name="Avancement" dataDxfId="1">
-      <calculatedColumnFormula>(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]])*100</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Tableau39" displayName="Tableau39" ref="B13:F22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B13:F22"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Mois" dataDxfId="21"/>
+    <tableColumn id="2" name="Thèmes" dataDxfId="20"/>
+    <tableColumn id="3" name="Nb actions" dataDxfId="19"/>
+    <tableColumn id="7" name="Nb actions terminées" dataDxfId="18">
+      <calculatedColumnFormula>SUM(DECEMBRE!K:K)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Validation" dataDxfId="0"/>
+    <tableColumn id="4" name="Avancement" dataDxfId="17">
+      <calculatedColumnFormula>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A2:J3" headerRowDxfId="109" dataDxfId="108" totalsRowDxfId="107" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:J3"/>
-  <sortState ref="B3:J3">
-    <sortCondition ref="J2:J3"/>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Tableau53638" displayName="Tableau53638" ref="A2:K3" insertRow="1" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K3"/>
+  <sortState ref="A3:I3">
+    <sortCondition ref="I2:I3"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="10" name="Catégorie" dataDxfId="106" totalsRowDxfId="105"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="118"/>
-    <tableColumn id="2" name="Description" dataDxfId="117"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="116"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="115"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="114"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="113"/>
-    <tableColumn id="7" name="Branche" dataDxfId="112"/>
-    <tableColumn id="8" name="Révision" dataDxfId="111"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="110"/>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="34"/>
+    <tableColumn id="2" name="Description" dataDxfId="33"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="32"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="31"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="30"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="29"/>
+    <tableColumn id="7" name="Branche" dataDxfId="28"/>
+    <tableColumn id="8" name="Révision" dataDxfId="27"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="26"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="25" totalsRowDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A2:K7" headerRowDxfId="147" dataDxfId="146" totalsRowDxfId="145" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K7"/>
+  <sortState ref="B3:J3">
+    <sortCondition ref="J2:J3"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="144" totalsRowDxfId="15"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="143"/>
+    <tableColumn id="2" name="Description" dataDxfId="142"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="141"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="140"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="139"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="14"/>
+    <tableColumn id="7" name="Branche" dataDxfId="138"/>
+    <tableColumn id="8" name="Révision" dataDxfId="137"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="136"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="135" totalsRowDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau516" displayName="Tableau516" ref="A2:J3" headerRowDxfId="104" dataDxfId="103" totalsRowDxfId="102" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau5162" displayName="Tableau5162" ref="A2:K10" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K10"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="10" name="Catégorie" dataDxfId="101"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="100"/>
-    <tableColumn id="2" name="Description" dataDxfId="99"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="98"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="97"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="96"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="95"/>
-    <tableColumn id="7" name="Branche" dataDxfId="94"/>
-    <tableColumn id="8" name="Révision" dataDxfId="93"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="92"/>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="13"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="12"/>
+    <tableColumn id="2" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="10"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="9"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="8"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="7"/>
+    <tableColumn id="7" name="Branche" dataDxfId="6"/>
+    <tableColumn id="8" name="Révision" dataDxfId="5"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="4"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tableau529" displayName="Tableau529" ref="A2:J3" headerRowDxfId="91" dataDxfId="90" totalsRowDxfId="89" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau516" displayName="Tableau516" ref="A2:K9" headerRowDxfId="134" dataDxfId="133" totalsRowDxfId="132" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K9"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="10" name="Catégorie" dataDxfId="87" totalsRowDxfId="88"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="86"/>
-    <tableColumn id="2" name="Description" dataDxfId="85"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="84"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="83"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="82"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="81"/>
-    <tableColumn id="7" name="Branche" dataDxfId="80"/>
-    <tableColumn id="8" name="Révision" dataDxfId="79"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="78"/>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="131"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="130"/>
+    <tableColumn id="2" name="Description" dataDxfId="129"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="128"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="127"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="126"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="125"/>
+    <tableColumn id="7" name="Branche" dataDxfId="124"/>
+    <tableColumn id="8" name="Révision" dataDxfId="123"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="122"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="121" totalsRowDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tableau531" displayName="Tableau531" ref="A2:J3" headerRowDxfId="77" dataDxfId="76" totalsRowDxfId="75" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tableau529" displayName="Tableau529" ref="A2:K3" insertRow="1" headerRowDxfId="119" dataDxfId="118" totalsRowDxfId="117" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="10" name="Catégorie" dataDxfId="73" totalsRowDxfId="74"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="72"/>
-    <tableColumn id="2" name="Description" dataDxfId="71"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="70"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="69"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="68"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="67"/>
-    <tableColumn id="7" name="Branche" dataDxfId="66"/>
-    <tableColumn id="8" name="Révision" dataDxfId="65"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="64"/>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="114"/>
+    <tableColumn id="2" name="Description" dataDxfId="113"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="112"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="111"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="110"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="109"/>
+    <tableColumn id="7" name="Branche" dataDxfId="108"/>
+    <tableColumn id="8" name="Révision" dataDxfId="107"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="106"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="105" totalsRowDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tableau532" displayName="Tableau532" ref="A2:J3" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tableau531" displayName="Tableau531" ref="A2:K3" insertRow="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="10" name="Catégorie" dataDxfId="59" totalsRowDxfId="60"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="58"/>
-    <tableColumn id="2" name="Description" dataDxfId="57"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="56"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="55"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="54"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="53"/>
-    <tableColumn id="7" name="Branche" dataDxfId="52"/>
-    <tableColumn id="8" name="Révision" dataDxfId="51"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="50"/>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="98"/>
+    <tableColumn id="2" name="Description" dataDxfId="97"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="96"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="95"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="94"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="93"/>
+    <tableColumn id="7" name="Branche" dataDxfId="92"/>
+    <tableColumn id="8" name="Révision" dataDxfId="91"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="90"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="89" totalsRowDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tableau534" displayName="Tableau534" ref="A2:J3" headerRowDxfId="49" dataDxfId="48" totalsRowDxfId="47" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tableau532" displayName="Tableau532" ref="A2:K3" insertRow="1" headerRowDxfId="87" dataDxfId="86" totalsRowDxfId="85" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="10" name="Catégorie" dataDxfId="45" totalsRowDxfId="46"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="44"/>
-    <tableColumn id="2" name="Description" dataDxfId="43"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="42"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="41"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="40"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="39"/>
-    <tableColumn id="7" name="Branche" dataDxfId="38"/>
-    <tableColumn id="8" name="Révision" dataDxfId="37"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="36"/>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="82"/>
+    <tableColumn id="2" name="Description" dataDxfId="81"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="80"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="79"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="78"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="77"/>
+    <tableColumn id="7" name="Branche" dataDxfId="76"/>
+    <tableColumn id="8" name="Révision" dataDxfId="75"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="74"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="73" totalsRowDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tableau536" displayName="Tableau536" ref="A2:J3" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tableau534" displayName="Tableau534" ref="A2:K3" insertRow="1" headerRowDxfId="71" dataDxfId="70" totalsRowDxfId="69" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="10" name="Catégorie" dataDxfId="31" totalsRowDxfId="32"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="30"/>
-    <tableColumn id="2" name="Description" dataDxfId="29"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="28"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="27"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="26"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="25"/>
-    <tableColumn id="7" name="Branche" dataDxfId="24"/>
-    <tableColumn id="8" name="Révision" dataDxfId="23"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="22"/>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="66"/>
+    <tableColumn id="2" name="Description" dataDxfId="65"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="64"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="63"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="62"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="61"/>
+    <tableColumn id="7" name="Branche" dataDxfId="60"/>
+    <tableColumn id="8" name="Révision" dataDxfId="59"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="58"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="57" totalsRowDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Tableau53638" displayName="Tableau53638" ref="A2:J3" headerRowDxfId="21" dataDxfId="20" totalsRowDxfId="19" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tableau536" displayName="Tableau536" ref="A2:K3" insertRow="1" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="53" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="10" name="Catégorie" dataDxfId="17" totalsRowDxfId="18"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="16"/>
-    <tableColumn id="2" name="Description" dataDxfId="15"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="14"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="13"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="12"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="11"/>
-    <tableColumn id="7" name="Branche" dataDxfId="10"/>
-    <tableColumn id="8" name="Révision" dataDxfId="9"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="8"/>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="50"/>
+    <tableColumn id="2" name="Description" dataDxfId="49"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="48"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="47"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="46"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="45"/>
+    <tableColumn id="7" name="Branche" dataDxfId="44"/>
+    <tableColumn id="8" name="Révision" dataDxfId="43"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="42"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="41" totalsRowDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1122,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:H23"/>
+  <dimension ref="B10:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,198 +1449,215 @@
         <v>22</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
-        <f>(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
+        <f>COUNTA(DECEMBRE!B:B)-1</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="14">
+        <f>SUM(DECEMBRE!K:K)</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="9">
+        <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <f>COUNTA(JANVIER!B:B)-1</f>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <f>(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
+        <f>SUM(JANVIER!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <f>COUNTA(FEVRIER!B:B)-1</f>
+        <v>6</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <f>(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
+        <f>SUM(FEVRIER!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
-        <v>1</v>
+        <f>COUNTA(MARS!B:B)-1</f>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <f>(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
+        <f>SUM(MARS!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <v>1</v>
+        <f>COUNTA(AVRIL!B:B)-1</f>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12">
-        <f>(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
+        <f>SUM(AVRIL!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
-        <v>1</v>
+        <f>COUNTA(MAI!B:B)-1</f>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <f>(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
+        <f>SUM(MAI!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
-        <v>1</v>
+        <f>COUNTA(JUIN!B:B)-1</f>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <f>(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
+        <f>SUM(JUIN!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
-        <v>1</v>
+        <f>COUNTA(JUILLET!B:B)-1</f>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <f>(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]])*100</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
+        <f>SUM(JUILLET!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <f>COUNTA(AOUT!B:B)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <f>SUM(AOUT!K:K)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
         <f>SUM(Tableau39[Nb actions])</f>
-        <v>8</v>
-      </c>
-      <c r="E22" s="3">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3">
         <f>SUM(Tableau39[Nb actions terminées])</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
-        <f>SUM(Tableau39[Avancement])</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="13">
-        <f>SUM(Tableau39[Validation])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>2</v>
+      </c>
+      <c r="F23" s="10">
+        <f>SUM(Tableau39[Avancement])/8</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:G10"/>
@@ -1380,33 +1670,125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="4" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="4" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" style="1" customWidth="1"/>
     <col min="12" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1418,13 +1800,13 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1436,12 +1818,163 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="J3" s="1"/>
+      <c r="K2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>42339</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G6" s="4">
+        <v>42342</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1457,37 +1990,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="6"/>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1499,13 +2030,13 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1517,18 +2048,225 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
+      <c r="K2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1543,10 +2281,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,21 +2297,21 @@
     <col min="7" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="7"/>
+      <c r="C1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1585,13 +2323,13 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1603,18 +2341,194 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
+      <c r="K2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="4"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1629,10 +2543,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,21 +2559,21 @@
     <col min="7" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="7"/>
+      <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="13"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1671,13 +2585,13 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1689,8 +2603,11 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1701,6 +2618,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1715,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,21 +2649,21 @@
     <col min="7" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="7"/>
+      <c r="C1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="13"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1757,13 +2675,13 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1775,8 +2693,11 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1787,6 +2708,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1801,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,21 +2739,21 @@
     <col min="7" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7"/>
+      <c r="C1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1843,13 +2765,13 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1861,8 +2783,11 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1873,6 +2798,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1887,10 +2813,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,21 +2829,21 @@
     <col min="7" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="7"/>
+      <c r="C1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="13"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1929,13 +2855,13 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1947,8 +2873,11 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1959,6 +2888,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1973,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,21 +2919,21 @@
     <col min="7" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="7"/>
+      <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="13"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2015,13 +2945,13 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2033,8 +2963,11 @@
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2045,6 +2978,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentations/Echeancier.xlsx
+++ b/Documentations/Echeancier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6870" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROJET" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
   <si>
     <t>AOUT</t>
   </si>
@@ -236,9 +236,6 @@
     <t>DEVELOPPEMENT</t>
   </si>
   <si>
-    <t>Récupération des anciens traitements et évaluation des évolutions possibles.</t>
-  </si>
-  <si>
     <t>Formation - Etude</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Design - Scripts</t>
+  </si>
+  <si>
+    <t>Récupération des anciens traitements et évaluation des évolutions possibles. Utilisation d'un cache pour les informations de la FFHB.</t>
   </si>
 </sst>
 </file>
@@ -401,6 +401,9 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,9 +411,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,12 +437,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -467,10 +461,411 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -482,401 +877,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -908,16 +908,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Tableau39" displayName="Tableau39" ref="B13:F22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Tableau39" displayName="Tableau39" ref="B13:F22" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
   <autoFilter ref="B13:F22"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Mois" dataDxfId="21"/>
-    <tableColumn id="2" name="Thèmes" dataDxfId="20"/>
-    <tableColumn id="3" name="Nb actions" dataDxfId="19"/>
-    <tableColumn id="7" name="Nb actions terminées" dataDxfId="18">
+    <tableColumn id="1" name="Mois" dataDxfId="145"/>
+    <tableColumn id="2" name="Thèmes" dataDxfId="144"/>
+    <tableColumn id="3" name="Nb actions" dataDxfId="143"/>
+    <tableColumn id="7" name="Nb actions terminées" dataDxfId="142">
       <calculatedColumnFormula>SUM(DECEMBRE!K:K)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Avancement" dataDxfId="17">
+    <tableColumn id="4" name="Avancement" dataDxfId="141">
       <calculatedColumnFormula>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -926,207 +926,207 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Tableau53638" displayName="Tableau53638" ref="A2:K3" insertRow="1" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Tableau53638" displayName="Tableau53638" ref="A2:K3" insertRow="1" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="34"/>
-    <tableColumn id="2" name="Description" dataDxfId="33"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="32"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="31"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="30"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="29"/>
-    <tableColumn id="7" name="Branche" dataDxfId="28"/>
-    <tableColumn id="8" name="Révision" dataDxfId="27"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="26"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="10"/>
+    <tableColumn id="2" name="Description" dataDxfId="9"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="8"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="7"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="6"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="5"/>
+    <tableColumn id="7" name="Branche" dataDxfId="4"/>
+    <tableColumn id="8" name="Révision" dataDxfId="3"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="2"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A2:K7" headerRowDxfId="147" dataDxfId="146" totalsRowDxfId="145" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A2:K7" headerRowDxfId="140" dataDxfId="139" totalsRowDxfId="138" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K7"/>
   <sortState ref="B3:J3">
     <sortCondition ref="J2:J3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="144" totalsRowDxfId="15"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="143"/>
-    <tableColumn id="2" name="Description" dataDxfId="142"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="141"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="140"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="139"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="14"/>
-    <tableColumn id="7" name="Branche" dataDxfId="138"/>
-    <tableColumn id="8" name="Révision" dataDxfId="137"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="136"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="135" totalsRowDxfId="16"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="135"/>
+    <tableColumn id="2" name="Description" dataDxfId="134"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="133"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="132"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="131"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="130"/>
+    <tableColumn id="7" name="Branche" dataDxfId="129"/>
+    <tableColumn id="8" name="Révision" dataDxfId="128"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="127"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="126" totalsRowDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau5162" displayName="Tableau5162" ref="A2:K10" headerRowDxfId="2" dataDxfId="1" totalsRowDxfId="0" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau5162" displayName="Tableau5162" ref="A2:K10" headerRowDxfId="124" dataDxfId="123" totalsRowDxfId="122" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K10"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="13"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="12"/>
-    <tableColumn id="2" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="10"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="9"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="8"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="7"/>
-    <tableColumn id="7" name="Branche" dataDxfId="6"/>
-    <tableColumn id="8" name="Révision" dataDxfId="5"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="4"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="3"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="121"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="120"/>
+    <tableColumn id="2" name="Description" dataDxfId="119"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="118"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="117"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="116"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="115"/>
+    <tableColumn id="7" name="Branche" dataDxfId="114"/>
+    <tableColumn id="8" name="Révision" dataDxfId="113"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="112"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau516" displayName="Tableau516" ref="A2:K9" headerRowDxfId="134" dataDxfId="133" totalsRowDxfId="132" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau516" displayName="Tableau516" ref="A2:K9" headerRowDxfId="110" dataDxfId="109" totalsRowDxfId="108" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K9"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="131"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="130"/>
-    <tableColumn id="2" name="Description" dataDxfId="129"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="128"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="127"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="126"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="125"/>
-    <tableColumn id="7" name="Branche" dataDxfId="124"/>
-    <tableColumn id="8" name="Révision" dataDxfId="123"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="122"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="107"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="106"/>
+    <tableColumn id="2" name="Description" dataDxfId="105"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="104"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="103"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="102"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="101"/>
+    <tableColumn id="7" name="Branche" dataDxfId="100"/>
+    <tableColumn id="8" name="Révision" dataDxfId="99"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="98"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="97" totalsRowDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tableau529" displayName="Tableau529" ref="A2:K3" insertRow="1" headerRowDxfId="119" dataDxfId="118" totalsRowDxfId="117" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tableau529" displayName="Tableau529" ref="A2:K3" insertRow="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="114"/>
-    <tableColumn id="2" name="Description" dataDxfId="113"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="112"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="111"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="110"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="109"/>
-    <tableColumn id="7" name="Branche" dataDxfId="108"/>
-    <tableColumn id="8" name="Révision" dataDxfId="107"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="106"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="90"/>
+    <tableColumn id="2" name="Description" dataDxfId="89"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="88"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="87"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="86"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="85"/>
+    <tableColumn id="7" name="Branche" dataDxfId="84"/>
+    <tableColumn id="8" name="Révision" dataDxfId="83"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="82"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="81" totalsRowDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tableau531" displayName="Tableau531" ref="A2:K3" insertRow="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tableau531" displayName="Tableau531" ref="A2:K3" insertRow="1" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="77" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="98"/>
-    <tableColumn id="2" name="Description" dataDxfId="97"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="96"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="95"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="94"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="93"/>
-    <tableColumn id="7" name="Branche" dataDxfId="92"/>
-    <tableColumn id="8" name="Révision" dataDxfId="91"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="90"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="74"/>
+    <tableColumn id="2" name="Description" dataDxfId="73"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="72"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="71"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="70"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="69"/>
+    <tableColumn id="7" name="Branche" dataDxfId="68"/>
+    <tableColumn id="8" name="Révision" dataDxfId="67"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="66"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="65" totalsRowDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tableau532" displayName="Tableau532" ref="A2:K3" insertRow="1" headerRowDxfId="87" dataDxfId="86" totalsRowDxfId="85" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tableau532" displayName="Tableau532" ref="A2:K3" insertRow="1" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="82"/>
-    <tableColumn id="2" name="Description" dataDxfId="81"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="80"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="79"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="78"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="77"/>
-    <tableColumn id="7" name="Branche" dataDxfId="76"/>
-    <tableColumn id="8" name="Révision" dataDxfId="75"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="74"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="58"/>
+    <tableColumn id="2" name="Description" dataDxfId="57"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="56"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="55"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="54"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="53"/>
+    <tableColumn id="7" name="Branche" dataDxfId="52"/>
+    <tableColumn id="8" name="Révision" dataDxfId="51"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="50"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="49" totalsRowDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tableau534" displayName="Tableau534" ref="A2:K3" insertRow="1" headerRowDxfId="71" dataDxfId="70" totalsRowDxfId="69" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tableau534" displayName="Tableau534" ref="A2:K3" insertRow="1" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="66"/>
-    <tableColumn id="2" name="Description" dataDxfId="65"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="64"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="63"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="62"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="61"/>
-    <tableColumn id="7" name="Branche" dataDxfId="60"/>
-    <tableColumn id="8" name="Révision" dataDxfId="59"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="58"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="42"/>
+    <tableColumn id="2" name="Description" dataDxfId="41"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="40"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="39"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="38"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="37"/>
+    <tableColumn id="7" name="Branche" dataDxfId="36"/>
+    <tableColumn id="8" name="Révision" dataDxfId="35"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="34"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="33" totalsRowDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tableau536" displayName="Tableau536" ref="A2:K3" insertRow="1" headerRowDxfId="55" dataDxfId="54" totalsRowDxfId="53" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tableau536" displayName="Tableau536" ref="A2:K3" insertRow="1" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="29" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K3"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="50"/>
-    <tableColumn id="2" name="Description" dataDxfId="49"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="48"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="47"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="46"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="45"/>
-    <tableColumn id="7" name="Branche" dataDxfId="44"/>
-    <tableColumn id="8" name="Révision" dataDxfId="43"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="42"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="26"/>
+    <tableColumn id="2" name="Description" dataDxfId="25"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="24"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="23"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="22"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="21"/>
+    <tableColumn id="7" name="Branche" dataDxfId="20"/>
+    <tableColumn id="8" name="Révision" dataDxfId="19"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="18"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="17" totalsRowDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1412,24 +1412,24 @@
   </cols>
   <sheetData>
     <row r="10" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -1466,13 +1466,13 @@
         <f>COUNTA(DECEMBRE!B:B)-1</f>
         <v>5</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="11">
         <f>SUM(DECEMBRE!K:K)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="9">
         <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="1"/>
@@ -1482,7 +1482,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1">
         <f>COUNTA(JANVIER!B:B)-1</f>
@@ -1504,7 +1504,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16" s="1">
         <f>COUNTA(FEVRIER!B:B)-1</f>
@@ -1650,11 +1650,11 @@
       </c>
       <c r="E23" s="3">
         <f>SUM(Tableau39[Nb actions terminées])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="10">
         <f>SUM(Tableau39[Avancement])/8</f>
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1691,10 +1691,10 @@
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="14"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,10 +1782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1864,7 +1864,7 @@
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1945,7 +1945,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>37</v>
@@ -1953,12 +1953,20 @@
       <c r="E7" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>42345</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1993,7 +2001,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,10 +2015,10 @@
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
@@ -2249,7 +2257,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
@@ -2283,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,10 +2308,10 @@
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
@@ -2353,7 +2361,7 @@
         <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>37</v>
@@ -2377,13 +2385,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E4" s="5">
         <v>4.1666666666666664E-2</v>
@@ -2391,7 +2399,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="4"/>
       <c r="H4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1">
@@ -2406,13 +2414,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5">
         <v>8.3333333333333329E-2</v>
@@ -2420,7 +2428,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
       <c r="H5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1">
@@ -2435,13 +2443,13 @@
         <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="5">
         <v>2.0833333333333332E-2</v>
@@ -2449,7 +2457,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
       <c r="H6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1">
@@ -2464,13 +2472,13 @@
         <v>66</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5">
         <v>2.0833333333333332E-2</v>
@@ -2478,7 +2486,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -2493,13 +2501,13 @@
         <v>66</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="5">
         <v>2.0833333333333332E-2</v>
@@ -2507,7 +2515,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
@@ -2562,10 +2570,10 @@
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
@@ -2652,10 +2660,10 @@
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
@@ -2742,10 +2750,10 @@
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
@@ -2832,10 +2840,10 @@
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>
@@ -2922,10 +2930,10 @@
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="1"/>

--- a/Documentations/Echeancier.xlsx
+++ b/Documentations/Echeancier.xlsx
@@ -9,19 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6870" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6870" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PROJET" sheetId="9" r:id="rId1"/>
     <sheet name="DECEMBRE" sheetId="1" r:id="rId2"/>
-    <sheet name="JANVIER" sheetId="10" r:id="rId3"/>
-    <sheet name="FEVRIER" sheetId="2" r:id="rId4"/>
-    <sheet name="MARS" sheetId="3" r:id="rId5"/>
-    <sheet name="AVRIL" sheetId="4" r:id="rId6"/>
-    <sheet name="MAI" sheetId="5" r:id="rId7"/>
-    <sheet name="JUIN" sheetId="6" r:id="rId8"/>
-    <sheet name="JUILLET" sheetId="7" r:id="rId9"/>
-    <sheet name="AOUT" sheetId="8" r:id="rId10"/>
+    <sheet name="AVRIL" sheetId="10" r:id="rId3"/>
+    <sheet name="MAI" sheetId="2" r:id="rId4"/>
+    <sheet name="JUIN" sheetId="6" r:id="rId5"/>
+    <sheet name="JUILLET" sheetId="7" r:id="rId6"/>
+    <sheet name="AOUT" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
   <si>
     <t>AOUT</t>
   </si>
@@ -65,18 +62,9 @@
     <t>Tps passé</t>
   </si>
   <si>
-    <t>JANVIER</t>
-  </si>
-  <si>
     <t>Catégorie</t>
   </si>
   <si>
-    <t>FEVRIER</t>
-  </si>
-  <si>
-    <t>MARS</t>
-  </si>
-  <si>
     <t>AVRIL</t>
   </si>
   <si>
@@ -194,18 +182,12 @@
     <t>Git</t>
   </si>
   <si>
-    <t>Foundation</t>
-  </si>
-  <si>
     <t>Web</t>
   </si>
   <si>
     <t>Formation Git</t>
   </si>
   <si>
-    <t>Formation Foundation</t>
-  </si>
-  <si>
     <t>Formation HTML / CSS / JS / PHP</t>
   </si>
   <si>
@@ -242,9 +224,6 @@
     <t>Formation JQUERY</t>
   </si>
   <si>
-    <t>Ajout de liens de documentation des outils (GIT, Foundation, JS, PHP, HTML, CSS, JQUERY, ...)</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
@@ -285,6 +264,15 @@
   </si>
   <si>
     <t>Récupération des anciens traitements et évaluation des évolutions possibles. Utilisation d'un cache pour les informations de la FFHB.</t>
+  </si>
+  <si>
+    <t>Ajout de liens de documentation des outils (GIT, Frameworks, JS, PHP, HTML, CSS, JQUERY, ...)</t>
+  </si>
+  <si>
+    <t>Choix du Framworks et formation sur celui-ci</t>
+  </si>
+  <si>
+    <t>Frameworks</t>
   </si>
 </sst>
 </file>
@@ -369,7 +357,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,6 +401,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,159 +441,144 @@
     <cellStyle name="Titre 3" xfId="2" builtinId="18"/>
     <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
-  <dxfs count="148">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="100">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -707,144 +713,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -908,16 +776,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Tableau39" displayName="Tableau39" ref="B13:F22" totalsRowShown="0" headerRowDxfId="147" dataDxfId="146">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Tableau39" displayName="Tableau39" ref="B13:F22" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="B13:F22"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Mois" dataDxfId="145"/>
-    <tableColumn id="2" name="Thèmes" dataDxfId="144"/>
-    <tableColumn id="3" name="Nb actions" dataDxfId="143"/>
-    <tableColumn id="7" name="Nb actions terminées" dataDxfId="142">
+    <tableColumn id="1" name="Mois" dataDxfId="97"/>
+    <tableColumn id="2" name="Thèmes" dataDxfId="96"/>
+    <tableColumn id="3" name="Nb actions" dataDxfId="95"/>
+    <tableColumn id="7" name="Nb actions terminées" dataDxfId="94">
       <calculatedColumnFormula>SUM(DECEMBRE!K:K)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Avancement" dataDxfId="141">
+    <tableColumn id="4" name="Avancement" dataDxfId="93">
       <calculatedColumnFormula>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -925,198 +793,60 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Tableau53638" displayName="Tableau53638" ref="A2:K3" insertRow="1" headerRowDxfId="15" dataDxfId="14" totalsRowDxfId="13" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:K3"/>
-  <sortState ref="A3:I3">
-    <sortCondition ref="I2:I3"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="10"/>
-    <tableColumn id="2" name="Description" dataDxfId="9"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="8"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="7"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="6"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="5"/>
-    <tableColumn id="7" name="Branche" dataDxfId="4"/>
-    <tableColumn id="8" name="Révision" dataDxfId="3"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="2"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="1" totalsRowDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A2:K7" headerRowDxfId="140" dataDxfId="139" totalsRowDxfId="138" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="A2:K7" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K7"/>
   <sortState ref="B3:J3">
     <sortCondition ref="J2:J3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="135"/>
-    <tableColumn id="2" name="Description" dataDxfId="134"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="133"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="132"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="131"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="130"/>
-    <tableColumn id="7" name="Branche" dataDxfId="129"/>
-    <tableColumn id="8" name="Révision" dataDxfId="128"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="127"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="13" totalsRowDxfId="92"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="12"/>
+    <tableColumn id="2" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="10"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="9"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="8"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="7"/>
+    <tableColumn id="7" name="Branche" dataDxfId="6"/>
+    <tableColumn id="8" name="Révision" dataDxfId="5"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="4"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="3" totalsRowDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau5162" displayName="Tableau5162" ref="A2:K10" headerRowDxfId="124" dataDxfId="123" totalsRowDxfId="122" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau5162" displayName="Tableau5162" ref="A2:K10" headerRowDxfId="31" dataDxfId="29" totalsRowDxfId="30" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K10"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="121"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="120"/>
-    <tableColumn id="2" name="Description" dataDxfId="119"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="118"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="117"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="116"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="115"/>
-    <tableColumn id="7" name="Branche" dataDxfId="114"/>
-    <tableColumn id="8" name="Révision" dataDxfId="113"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="112"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="111"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="42"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="41"/>
+    <tableColumn id="2" name="Description" dataDxfId="40"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="39"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="38"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="37"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="36"/>
+    <tableColumn id="7" name="Branche" dataDxfId="35"/>
+    <tableColumn id="8" name="Révision" dataDxfId="34"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="33"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau516" displayName="Tableau516" ref="A2:K9" headerRowDxfId="110" dataDxfId="109" totalsRowDxfId="108" headerRowCellStyle="Titre 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tableau516" displayName="Tableau516" ref="A2:K9" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="15" headerRowCellStyle="Titre 3">
   <autoFilter ref="A2:K9"/>
   <sortState ref="A3:I3">
     <sortCondition ref="I2:I3"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="107"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="106"/>
-    <tableColumn id="2" name="Description" dataDxfId="105"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="104"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="103"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="102"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="101"/>
-    <tableColumn id="7" name="Branche" dataDxfId="100"/>
-    <tableColumn id="8" name="Révision" dataDxfId="99"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="98"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="97" totalsRowDxfId="96"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tableau529" displayName="Tableau529" ref="A2:K3" insertRow="1" headerRowDxfId="95" dataDxfId="94" totalsRowDxfId="93" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:K3"/>
-  <sortState ref="A3:I3">
-    <sortCondition ref="I2:I3"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="90"/>
-    <tableColumn id="2" name="Description" dataDxfId="89"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="88"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="87"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="86"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="85"/>
-    <tableColumn id="7" name="Branche" dataDxfId="84"/>
-    <tableColumn id="8" name="Révision" dataDxfId="83"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="82"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="81" totalsRowDxfId="80"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tableau531" displayName="Tableau531" ref="A2:K3" insertRow="1" headerRowDxfId="79" dataDxfId="78" totalsRowDxfId="77" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:K3"/>
-  <sortState ref="A3:I3">
-    <sortCondition ref="I2:I3"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="74"/>
-    <tableColumn id="2" name="Description" dataDxfId="73"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="72"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="71"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="70"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="69"/>
-    <tableColumn id="7" name="Branche" dataDxfId="68"/>
-    <tableColumn id="8" name="Révision" dataDxfId="67"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="66"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="65" totalsRowDxfId="64"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tableau532" displayName="Tableau532" ref="A2:K3" insertRow="1" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:K3"/>
-  <sortState ref="A3:I3">
-    <sortCondition ref="I2:I3"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="58"/>
-    <tableColumn id="2" name="Description" dataDxfId="57"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="56"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="55"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="54"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="53"/>
-    <tableColumn id="7" name="Branche" dataDxfId="52"/>
-    <tableColumn id="8" name="Révision" dataDxfId="51"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="50"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="49" totalsRowDxfId="48"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tableau534" displayName="Tableau534" ref="A2:K3" insertRow="1" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:K3"/>
-  <sortState ref="A3:I3">
-    <sortCondition ref="I2:I3"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="42"/>
-    <tableColumn id="2" name="Description" dataDxfId="41"/>
-    <tableColumn id="3" name="Réalisateur" dataDxfId="40"/>
-    <tableColumn id="4" name="Tps estimé" dataDxfId="39"/>
-    <tableColumn id="5" name="Tps passé" dataDxfId="38"/>
-    <tableColumn id="6" name="Date de fin" dataDxfId="37"/>
-    <tableColumn id="7" name="Branche" dataDxfId="36"/>
-    <tableColumn id="8" name="Révision" dataDxfId="35"/>
-    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="34"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="33" totalsRowDxfId="32"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tableau536" displayName="Tableau536" ref="A2:K3" insertRow="1" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="29" headerRowCellStyle="Titre 3">
-  <autoFilter ref="A2:K3"/>
-  <sortState ref="A3:I3">
-    <sortCondition ref="I2:I3"/>
-  </sortState>
-  <tableColumns count="11">
-    <tableColumn id="10" name="Catégorie" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="10" name="Catégorie" dataDxfId="27"/>
     <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="26"/>
     <tableColumn id="2" name="Description" dataDxfId="25"/>
     <tableColumn id="3" name="Réalisateur" dataDxfId="24"/>
@@ -1126,7 +856,76 @@
     <tableColumn id="7" name="Branche" dataDxfId="20"/>
     <tableColumn id="8" name="Révision" dataDxfId="19"/>
     <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="18"/>
-    <tableColumn id="11" name="Terminé" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="17" totalsRowDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tableau534" displayName="Tableau534" ref="A2:K3" insertRow="1" headerRowDxfId="90" dataDxfId="89" totalsRowDxfId="88" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K3"/>
+  <sortState ref="A3:I3">
+    <sortCondition ref="I2:I3"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="85"/>
+    <tableColumn id="2" name="Description" dataDxfId="84"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="83"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="82"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="81"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="80"/>
+    <tableColumn id="7" name="Branche" dataDxfId="79"/>
+    <tableColumn id="8" name="Révision" dataDxfId="78"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="77"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="76" totalsRowDxfId="75"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tableau536" displayName="Tableau536" ref="A2:K3" insertRow="1" headerRowDxfId="74" dataDxfId="73" totalsRowDxfId="72" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K3"/>
+  <sortState ref="A3:I3">
+    <sortCondition ref="I2:I3"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="69"/>
+    <tableColumn id="2" name="Description" dataDxfId="68"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="67"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="66"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="65"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="64"/>
+    <tableColumn id="7" name="Branche" dataDxfId="63"/>
+    <tableColumn id="8" name="Révision" dataDxfId="62"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="61"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="60" totalsRowDxfId="59"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Tableau53638" displayName="Tableau53638" ref="A2:K3" insertRow="1" headerRowDxfId="58" dataDxfId="57" totalsRowDxfId="56" headerRowCellStyle="Titre 3">
+  <autoFilter ref="A2:K3"/>
+  <sortState ref="A3:I3">
+    <sortCondition ref="I2:I3"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="10" name="Catégorie" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="1" name="Action" totalsRowLabel="Total" dataDxfId="53"/>
+    <tableColumn id="2" name="Description" dataDxfId="52"/>
+    <tableColumn id="3" name="Réalisateur" dataDxfId="51"/>
+    <tableColumn id="4" name="Tps estimé" dataDxfId="50"/>
+    <tableColumn id="5" name="Tps passé" dataDxfId="49"/>
+    <tableColumn id="6" name="Date de fin" dataDxfId="48"/>
+    <tableColumn id="7" name="Branche" dataDxfId="47"/>
+    <tableColumn id="8" name="Révision" dataDxfId="46"/>
+    <tableColumn id="9" name="Merger ?" totalsRowFunction="count" dataDxfId="45"/>
+    <tableColumn id="11" name="Terminé" dataDxfId="44" totalsRowDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1413,7 +1212,7 @@
   <sheetData>
     <row r="10" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -1423,7 +1222,7 @@
     </row>
     <row r="11" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -1440,27 +1239,27 @@
     </row>
     <row r="13" spans="2:8" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1">
         <f>COUNTA(DECEMBRE!B:B)-1</f>
@@ -1479,17 +1278,17 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1">
-        <f>COUNTA(JANVIER!B:B)-1</f>
+        <f>COUNTA(AVRIL!B:B)-1</f>
         <v>8</v>
       </c>
       <c r="E15" s="1">
-        <f>SUM(JANVIER!K:K)</f>
+        <f>SUM(AVRIL!K:K)</f>
         <v>0</v>
       </c>
       <c r="F15" s="9">
@@ -1501,17 +1300,17 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1">
-        <f>COUNTA(FEVRIER!B:B)-1</f>
+        <f>COUNTA(MAI!B:B)-1</f>
         <v>6</v>
       </c>
       <c r="E16" s="1">
-        <f>SUM(FEVRIER!K:K)</f>
+        <f>SUM(MAI!K:K)</f>
         <v>0</v>
       </c>
       <c r="F16" s="9">
@@ -1523,16 +1322,16 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1">
-        <f>COUNTA(MARS!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <f>SUM(MARS!K:K)</f>
-        <v>0</v>
+        <f>COUNTA(#REF!)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="F17" s="9">
         <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
@@ -1543,16 +1342,16 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <f>COUNTA(AVRIL!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <f>SUM(AVRIL!K:K)</f>
-        <v>0</v>
+        <f>COUNTA(#REF!)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="F18" s="9">
         <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
@@ -1563,16 +1362,16 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
-        <f>COUNTA(MAI!B:B)-1</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <f>SUM(MAI!K:K)</f>
-        <v>0</v>
+        <f>COUNTA(#REF!)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="F19" s="9">
         <f>IF(Tableau39[[#This Row],[Nb actions]] = 0,0,(Tableau39[[#This Row],[Nb actions terminées]]/Tableau39[[#This Row],[Nb actions]]))</f>
@@ -1583,7 +1382,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1">
@@ -1603,7 +1402,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -1623,7 +1422,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
@@ -1641,16 +1440,16 @@
     </row>
     <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
         <f>SUM(Tableau39[Nb actions])</f>
         <v>19</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="e">
         <f>SUM(Tableau39[Nb actions terminées])</f>
-        <v>3</v>
+        <v>#REF!</v>
       </c>
       <c r="F23" s="10">
         <f>SUM(Tableau39[Avancement])/8</f>
@@ -1670,319 +1469,231 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16" style="15" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="18" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" style="15" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="19"/>
+    <col min="12" max="13" width="11.5703125" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F3" s="17">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G3" s="18">
+        <v>42339</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="4" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G6" s="18">
+        <v>42342</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="F3" s="5">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>42339</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="E7" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>42345</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G6" s="4">
-        <v>42342</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>42345</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="5"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="F8" s="17"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="5"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="F9" s="17"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="5"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="F10" s="17"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2001,278 +1712,279 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>39</v>
+      <c r="K2" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="C10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="17">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2291,252 +2003,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16" style="19" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="19" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="19" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" style="19" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>39</v>
+      <c r="K2" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="17">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="17">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E6" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="I6" s="15"/>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="E7" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="17">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="5">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2580,9 +2293,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2612,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2672,7 +2385,7 @@
     </row>
     <row r="2" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2702,7 +2415,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2751,7 +2464,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="13" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D1" s="14"/>
       <c r="E1" s="5"/>
@@ -2760,9 +2473,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -2792,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2817,184 +2530,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="9" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>